--- a/prep_and_checklists/Kiang Malingue/Kiang Malingue_2025-05-03_0.xlsx
+++ b/prep_and_checklists/Kiang Malingue/Kiang Malingue_2025-05-03_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Kiang Malingue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6C377D-0342-3A4F-B730-4943EC7B1D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867FDE8-13AB-3747-9137-896BEDD5E612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>Kiang Malingue 40 Guests 8:15 PM - 11:15 PM Friday, May 9, 2025</t>
   </si>
@@ -35,9 +35,6 @@
     <t>10% brine / roast / pull chicken legs for fricasse</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Clean  / 6% brine / cook airline lunch chickens</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Defrost / cut shrimp</t>
   </si>
   <si>
-    <t>Pick fennel fronds</t>
-  </si>
-  <si>
     <t xml:space="preserve">   kit-out / mix cauliflower cous cous</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t xml:space="preserve">Cut baguette </t>
   </si>
   <si>
-    <t>Gluten-free bread</t>
-  </si>
-  <si>
     <t>Order List for Kiang Malingue - Friday, May 9, 2025 - Guest:40</t>
   </si>
   <si>
@@ -195,13 +186,94 @@
   </si>
   <si>
     <t>8 ea</t>
+  </si>
+  <si>
+    <t>* pull 3 containers from freezer</t>
+  </si>
+  <si>
+    <t>2 quarts dry</t>
+  </si>
+  <si>
+    <t>1 quart</t>
+  </si>
+  <si>
+    <t>1 pint</t>
+  </si>
+  <si>
+    <t>2 quarts</t>
+  </si>
+  <si>
+    <t>1x clam shell</t>
+  </si>
+  <si>
+    <t>3 quarts</t>
+  </si>
+  <si>
+    <t>30 portions</t>
+  </si>
+  <si>
+    <t>5lbs</t>
+  </si>
+  <si>
+    <t>1 box, * see AM prep</t>
+  </si>
+  <si>
+    <t>40 portions. * See AM prep</t>
+  </si>
+  <si>
+    <t>2 quarts, * See AM Prep</t>
+  </si>
+  <si>
+    <t>Picked dill</t>
+  </si>
+  <si>
+    <t>Olive oil aioli</t>
+  </si>
+  <si>
+    <t>2 pts</t>
+  </si>
+  <si>
+    <t>12 portions</t>
+  </si>
+  <si>
+    <t>40 ea</t>
+  </si>
+  <si>
+    <t>peas for soup</t>
+  </si>
+  <si>
+    <t>*See chef mark</t>
+  </si>
+  <si>
+    <t>baldor</t>
+  </si>
+  <si>
+    <t>goat cheese</t>
+  </si>
+  <si>
+    <t>2lbs</t>
+  </si>
+  <si>
+    <t>Pea soup</t>
+  </si>
+  <si>
+    <t>Chilled Pea soup</t>
+  </si>
+  <si>
+    <t>Goat Cheese</t>
+  </si>
+  <si>
+    <t>croutons</t>
+  </si>
+  <si>
+    <t>12 quarts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +329,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -311,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -329,6 +407,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,12 +731,12 @@
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
+      <c r="A5" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -663,214 +744,246 @@
     </row>
     <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
+      <c r="A26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>2</v>
+      <c r="A33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>4</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -881,10 +994,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C13"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -896,142 +1012,166 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="60" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>